--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_d4.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_d4.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahaines\Desktop\Method Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B40A860-FC30-7247-8940-30FF4646D2A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="75" windowWidth="14730" windowHeight="15285"/>
+    <workbookView xWindow="7860" yWindow="500" windowWidth="14740" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$EX$1:$FF$25</definedName>
@@ -200,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -453,6 +452,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -488,6 +504,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,29 +696,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:LZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="LR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="LZ12" sqref="LZ12"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="3" customWidth="1"/>
-    <col min="4" max="109" width="8.33203125" style="3" customWidth="1"/>
-    <col min="110" max="110" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="111" max="177" width="8.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="109" width="8.28515625" style="3" customWidth="1"/>
+    <col min="110" max="110" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="111" max="177" width="8.28515625" style="3" customWidth="1"/>
     <col min="178" max="178" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="179" max="256" width="8.33203125" style="3"/>
-    <col min="257" max="16384" width="8.33203125" style="15"/>
+    <col min="179" max="256" width="8.28515625" style="3"/>
+    <col min="257" max="16384" width="8.28515625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:338" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:338" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1792,7 +1825,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="2" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2000,7 +2033,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="3" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
@@ -2521,7 +2554,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -3058,7 +3091,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -3475,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>45</v>
       </c>
@@ -3830,7 +3863,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="7" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>46</v>
       </c>
@@ -4188,7 +4221,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="8" spans="1:338" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:338" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -4645,7 +4678,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
         <v>50</v>
       </c>
@@ -4965,7 +4998,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
         <v>51</v>
       </c>
@@ -5288,7 +5321,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="11" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -5994,7 +6027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
         <v>40</v>
       </c>
@@ -6287,7 +6320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
         <v>52</v>
       </c>
@@ -6503,7 +6536,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="14" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="18">
         <v>3</v>
@@ -7022,7 +7055,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="15" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="18">
         <v>24</v>
@@ -7279,7 +7312,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="16" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="18" t="s">
         <v>22</v>
@@ -7518,7 +7551,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="17" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="18">
         <v>18</v>
@@ -7737,7 +7770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="18">
         <v>13</v>
@@ -8201,7 +8234,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="19" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="18">
         <v>14</v>
@@ -8378,7 +8411,7 @@
       <c r="FF19" s="5"/>
       <c r="FG19" s="5"/>
     </row>
-    <row r="20" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="18">
         <v>15</v>
@@ -8553,7 +8586,7 @@
       <c r="FF20" s="5"/>
       <c r="FG20" s="5"/>
     </row>
-    <row r="21" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="18">
         <v>29</v>
@@ -8740,7 +8773,7 @@
       <c r="FF21" s="5"/>
       <c r="FG21" s="5"/>
     </row>
-    <row r="22" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="18">
         <v>31</v>
@@ -8923,7 +8956,7 @@
       <c r="FF22" s="5"/>
       <c r="FG22" s="5"/>
     </row>
-    <row r="23" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="18" t="s">
         <v>23</v>
@@ -9092,7 +9125,7 @@
       <c r="FF23" s="5"/>
       <c r="FG23" s="5"/>
     </row>
-    <row r="24" spans="1:301" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:301" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="18" t="s">
         <v>24</v>
@@ -9403,7 +9436,7 @@
       <c r="KN24" s="2"/>
       <c r="KO24" s="2"/>
     </row>
-    <row r="25" spans="1:301" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:301" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="19" t="s">
         <v>25</v>
@@ -9728,7 +9761,7 @@
       <c r="KN25" s="2"/>
       <c r="KO25" s="2"/>
     </row>
-    <row r="26" spans="1:301" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:301" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="22">
         <v>14</v>
@@ -10037,7 +10070,7 @@
       <c r="KN26" s="2"/>
       <c r="KO26" s="2"/>
     </row>
-    <row r="27" spans="1:301" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:301" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="22" t="s">
         <v>27</v>
@@ -10344,7 +10377,7 @@
       <c r="KN27" s="2"/>
       <c r="KO27" s="2"/>
     </row>
-    <row r="28" spans="1:301" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:301" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="22">
         <v>51</v>
@@ -10605,7 +10638,7 @@
       <c r="IT28" s="2"/>
       <c r="IU28" s="2"/>
     </row>
-    <row r="29" spans="1:301" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:301" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="23">
         <v>53</v>
@@ -10866,7 +10899,7 @@
       <c r="IT29" s="2"/>
       <c r="IU29" s="2"/>
     </row>
-    <row r="30" spans="1:301" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:301" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
         <v>28</v>
@@ -10982,7 +11015,7 @@
       <c r="IT30" s="2"/>
       <c r="IU30" s="2"/>
     </row>
-    <row r="31" spans="1:301" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:301" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="3">
         <v>30</v>
@@ -11105,7 +11138,7 @@
       <c r="IT31" s="2"/>
       <c r="IU31" s="2"/>
     </row>
-    <row r="32" spans="1:301" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:301" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
         <v>30</v>
@@ -11221,7 +11254,7 @@
       <c r="IT32" s="2"/>
       <c r="IU32" s="2"/>
     </row>
-    <row r="33" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:257" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="3" t="s">
         <v>31</v>
@@ -11337,7 +11370,7 @@
       <c r="IT33" s="2"/>
       <c r="IU33" s="2"/>
     </row>
-    <row r="34" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:257" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="3">
         <v>13</v>
@@ -11456,7 +11489,7 @@
       <c r="IT34" s="2"/>
       <c r="IU34" s="2"/>
     </row>
-    <row r="35" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:257" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="3">
         <v>13</v>
@@ -11579,7 +11612,7 @@
       <c r="IT35" s="2"/>
       <c r="IU35" s="2"/>
     </row>
-    <row r="36" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:257" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="3">
         <v>30</v>
@@ -11698,7 +11731,7 @@
       <c r="IT36" s="2"/>
       <c r="IU36" s="2"/>
     </row>
-    <row r="37" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:257" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="3">
         <v>25</v>
@@ -11817,7 +11850,7 @@
       <c r="IT37" s="2"/>
       <c r="IU37" s="2"/>
     </row>
-    <row r="38" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:257" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="3">
         <v>30</v>
@@ -11936,7 +11969,7 @@
       <c r="IT38" s="2"/>
       <c r="IU38" s="2"/>
     </row>
-    <row r="39" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:257" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
       <c r="B39" s="17" t="s">
         <v>35</v>
@@ -12052,7 +12085,7 @@
       <c r="IT39" s="2"/>
       <c r="IU39" s="2"/>
     </row>
-    <row r="40" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:257" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="3">
         <v>17</v>
@@ -12062,7 +12095,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:KO39">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:KO39">
     <sortCondition ref="A2:A39"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -12089,34 +12122,4 @@
     <oddFooter>&amp;L&amp;D&amp;R&amp;Z&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_d4.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_d4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/data_analytics_research/shellbase_with_usc/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B40A860-FC30-7247-8940-30FF4646D2A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EE7610-6731-284B-AEF3-004370221F0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="500" windowWidth="14740" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>STATION</t>
   </si>
@@ -702,7 +702,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="LR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4682,7 +4682,9 @@
       <c r="A9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -5002,7 +5004,9 @@
       <c r="A10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -6324,7 +6328,9 @@
       <c r="A13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
